--- a/BINF620-R Projects/Final Project/NSCH_2022e_CAHMI_DRCv2_CSV_Variable labels.xlsx
+++ b/BINF620-R Projects/Final Project/NSCH_2022e_CAHMI_DRCv2_CSV_Variable labels.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\data\X-Drive\DRC\2022 NSCH\2022 NSCH Dataset\Datasets for distribution\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manning's PC\Documents\ProgrammingProjects\binf620_assmith23\BINF620-R Projects\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B3836FB-F716-4811-89D7-9D88255CB56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244230D9-B774-48CF-B1F1-9BF3FFC23B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24CD0A18-0D74-4436-8BB0-CF90BAB9E784}"/>
+    <workbookView xWindow="9615" yWindow="4110" windowWidth="28110" windowHeight="15885" xr2:uid="{24CD0A18-0D74-4436-8BB0-CF90BAB9E784}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -5640,12 +5640,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5660,9 +5666,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5999,8 +6006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A1BD0F-AB80-42BF-ADD7-E5971A4A9B80}">
   <dimension ref="A1:B934"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A922" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A886" workbookViewId="0">
+      <selection activeCell="C909" sqref="C909"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6074,10 +6081,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6394,10 +6401,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6434,18 +6441,18 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6586,10 +6593,10 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6610,10 +6617,10 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6626,10 +6633,10 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6666,58 +6673,58 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6754,10 +6761,10 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6810,10 +6817,10 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6842,10 +6849,10 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6874,34 +6881,34 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6986,66 +6993,66 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7418,10 +7425,10 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="2" t="s">
         <v>351</v>
       </c>
     </row>
@@ -7570,82 +7577,82 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="2" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="2" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="2" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="2" t="s">
         <v>407</v>
       </c>
     </row>
@@ -7810,82 +7817,82 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="2" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="2" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="2" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="2" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="2" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="2" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="2" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="2" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="2" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="2" t="s">
         <v>467</v>
       </c>
     </row>
@@ -8658,10 +8665,10 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="A332" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="2" t="s">
         <v>661</v>
       </c>
     </row>
@@ -8730,66 +8737,66 @@
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="A341" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="2" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="A342" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="2" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="A343" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="2" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="A344" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="2" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="A345" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="2" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="A346" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="2" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="A347" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="2" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+      <c r="A348" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="2" t="s">
         <v>692</v>
       </c>
     </row>
@@ -9178,10 +9185,10 @@
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="A397" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="2" t="s">
         <v>790</v>
       </c>
     </row>
@@ -9290,10 +9297,10 @@
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+      <c r="A411" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="2" t="s">
         <v>818</v>
       </c>
     </row>
@@ -9826,226 +9833,226 @@
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
+      <c r="A478" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="2" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
+      <c r="A479" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="2" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
+      <c r="A480" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B480" s="2" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
+      <c r="A481" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481" s="2" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
+      <c r="A482" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482" s="2" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+      <c r="A483" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483" s="2" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
+      <c r="A484" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="2" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
+      <c r="A485" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485" s="2" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
+      <c r="A486" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="2" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
+      <c r="A487" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="2" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+      <c r="A488" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="2" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
+      <c r="A489" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="2" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
+      <c r="A490" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B490" s="2" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
+      <c r="A491" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="2" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+      <c r="A492" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="2" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+      <c r="A493" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="2" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
+      <c r="A494" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="2" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+      <c r="A495" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="2" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
+      <c r="A496" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="2" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
+      <c r="A497" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="2" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
+      <c r="A498" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="2" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
+      <c r="A499" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="2" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
+      <c r="A500" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="2" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
+      <c r="A501" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="2" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
+      <c r="A502" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="2" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
+      <c r="A503" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="2" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
+      <c r="A504" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="2" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
+      <c r="A505" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="2" t="s">
         <v>1003</v>
       </c>
     </row>
@@ -10178,10 +10185,10 @@
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
+      <c r="A522" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B522" s="2" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -10498,34 +10505,34 @@
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
+      <c r="A562" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B562" s="2" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
+      <c r="A563" s="2" t="s">
         <v>1118</v>
       </c>
-      <c r="B563" t="s">
+      <c r="B563" s="2" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
+      <c r="A564" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="B564" t="s">
+      <c r="B564" s="2" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
+      <c r="A565" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="B565" t="s">
+      <c r="B565" s="2" t="s">
         <v>1123</v>
       </c>
     </row>
@@ -10562,10 +10569,10 @@
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
+      <c r="A570" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="B570" t="s">
+      <c r="B570" s="2" t="s">
         <v>1133</v>
       </c>
     </row>
@@ -10762,10 +10769,10 @@
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
+      <c r="A595" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="B595" t="s">
+      <c r="B595" s="2" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -12562,34 +12569,34 @@
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A820" t="s">
+      <c r="A820" s="2" t="s">
         <v>1629</v>
       </c>
-      <c r="B820" t="s">
+      <c r="B820" s="2" t="s">
         <v>1630</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A821" t="s">
+      <c r="A821" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="B821" t="s">
+      <c r="B821" s="2" t="s">
         <v>1632</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A822" t="s">
+      <c r="A822" s="2" t="s">
         <v>1633</v>
       </c>
-      <c r="B822" t="s">
+      <c r="B822" s="2" t="s">
         <v>1634</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A823" t="s">
+      <c r="A823" s="2" t="s">
         <v>1635</v>
       </c>
-      <c r="B823" t="s">
+      <c r="B823" s="2" t="s">
         <v>1636</v>
       </c>
     </row>
@@ -12666,10 +12673,10 @@
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A833" t="s">
+      <c r="A833" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="B833" t="s">
+      <c r="B833" s="2" t="s">
         <v>1656</v>
       </c>
     </row>
@@ -12746,90 +12753,90 @@
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A843" t="s">
+      <c r="A843" s="2" t="s">
         <v>1674</v>
       </c>
-      <c r="B843" t="s">
+      <c r="B843" s="2" t="s">
         <v>1675</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A844" t="s">
+      <c r="A844" s="2" t="s">
         <v>1676</v>
       </c>
-      <c r="B844" t="s">
+      <c r="B844" s="2" t="s">
         <v>1677</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A845" t="s">
+      <c r="A845" s="2" t="s">
         <v>1678</v>
       </c>
-      <c r="B845" t="s">
+      <c r="B845" s="2" t="s">
         <v>1679</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A846" t="s">
+      <c r="A846" s="2" t="s">
         <v>1680</v>
       </c>
-      <c r="B846" t="s">
+      <c r="B846" s="2" t="s">
         <v>1681</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A847" t="s">
+      <c r="A847" s="2" t="s">
         <v>1682</v>
       </c>
-      <c r="B847" t="s">
+      <c r="B847" s="2" t="s">
         <v>1683</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A848" t="s">
+      <c r="A848" s="2" t="s">
         <v>1684</v>
       </c>
-      <c r="B848" t="s">
+      <c r="B848" s="2" t="s">
         <v>1685</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A849" t="s">
+      <c r="A849" s="2" t="s">
         <v>1686</v>
       </c>
-      <c r="B849" t="s">
+      <c r="B849" s="2" t="s">
         <v>1687</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A850" t="s">
+      <c r="A850" s="2" t="s">
         <v>1688</v>
       </c>
-      <c r="B850" t="s">
+      <c r="B850" s="2" t="s">
         <v>1689</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A851" t="s">
+      <c r="A851" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="B851" t="s">
+      <c r="B851" s="2" t="s">
         <v>1691</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A852" t="s">
+      <c r="A852" s="2" t="s">
         <v>1692</v>
       </c>
-      <c r="B852" t="s">
+      <c r="B852" s="2" t="s">
         <v>1693</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A853" t="s">
+      <c r="A853" s="2" t="s">
         <v>1694</v>
       </c>
-      <c r="B853" t="s">
+      <c r="B853" s="2" t="s">
         <v>1695</v>
       </c>
     </row>
@@ -13154,10 +13161,10 @@
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A894" t="s">
+      <c r="A894" s="2" t="s">
         <v>1776</v>
       </c>
-      <c r="B894" t="s">
+      <c r="B894" s="2" t="s">
         <v>1777</v>
       </c>
     </row>
